--- a/2-missing-values/2-missing-values-solution.xlsx
+++ b/2-missing-values/2-missing-values-solution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\2-missing-values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E3E73BC-8928-4FFB-AAA0-060A4EB9BB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FAC304-4DD5-486C-8D94-EFEB2C03A92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,6 +89,9 @@
   <pythonScripts>
     <pythonScript>
       <code>penguins_df = xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>penguins_df.isna().sum()</code>
     </pythonScript>
     <pythonScript>
       <code>(penguins_df.isna().sum() / len(penguins_df)).sort_values(ascending=False)</code>
@@ -629,9 +632,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -950,7 +954,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B0D8451-8DC3-474D-8AB2-8E21F2369F91}" name="Table1" displayName="Table1" ref="A1:G345" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B0D8451-8DC3-474D-8AB2-8E21F2369F91}" name="penguins" displayName="penguins" ref="A1:G345" totalsRowShown="0">
   <autoFilter ref="A1:G345" xr:uid="{3B0D8451-8DC3-474D-8AB2-8E21F2369F91}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AB47DF9F-ED44-46A8-8E6E-EC5FD774AE15}" name="species"/>
@@ -1285,10 +1289,10 @@
   <dimension ref="A1:J345"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="3" max="3" width="14.58984375" customWidth="1"/>
     <col min="4" max="4" width="14.21875" customWidth="1"/>
@@ -1298,7 +1302,7 @@
     <col min="10" max="10" width="8.58984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1320,8 +1324,12 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="21.3" x14ac:dyDescent="0.85">
+      <c r="I1" t="e" cm="1" vm="1">
+        <f t="array" ref="I1">_xlfn._xlws.PY(0,1,penguins[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1343,12 +1351,8 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="e" cm="1" vm="1">
-        <f t="array" ref="I2">_xlfn._xlws.PY(0,1,Table1[#All])</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="21.3" x14ac:dyDescent="0.85">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1370,8 +1374,15 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="21.3" x14ac:dyDescent="0.85">
+      <c r="I3" t="str" cm="1">
+        <f t="array" ref="I3:J9">_xlfn._xlws.PY(1,0)</f>
+        <v>species</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1393,15 +1404,14 @@
       <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="str" cm="1">
-        <f t="array" ref="I4:J10">_xlfn._xlws.PY(1,0)</f>
-        <v>bill_length_mm</v>
-      </c>
-      <c r="J4" s="1">
-        <v>5.8139534883720929E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="21.3" x14ac:dyDescent="0.85">
+      <c r="I4" t="str">
+        <v>island</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1412,13 +1422,13 @@
         <v>15</v>
       </c>
       <c r="I5" t="str">
-        <v>flipper_length_mm</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5.8139534883720929E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="21.3" x14ac:dyDescent="0.85">
+        <v>bill_length_mm</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1443,11 +1453,11 @@
       <c r="I6" t="str">
         <v>bill_depth_mm</v>
       </c>
-      <c r="J6" s="1">
-        <v>5.8139534883720929E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="21.3" x14ac:dyDescent="0.85">
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1470,13 +1480,13 @@
         <v>13</v>
       </c>
       <c r="I7" t="str">
-        <v>body_mass_g</v>
-      </c>
-      <c r="J7" s="1">
-        <v>5.8139534883720929E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="21.3" x14ac:dyDescent="0.85">
+        <v>flipper_length_mm</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1499,13 +1509,13 @@
         <v>14</v>
       </c>
       <c r="I8" t="str">
-        <v>species</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="21.3" x14ac:dyDescent="0.85">
+        <v>body_mass_g</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1528,13 +1538,13 @@
         <v>13</v>
       </c>
       <c r="I9" t="str">
-        <v>island</v>
-      </c>
-      <c r="J9" s="1">
+        <v>sex</v>
+      </c>
+      <c r="J9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1556,14 +1566,8 @@
       <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" t="str">
-        <v>sex</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="21.3" x14ac:dyDescent="0.85">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1586,7 +1590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1608,8 +1612,15 @@
       <c r="G12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="21.3" x14ac:dyDescent="0.85">
+      <c r="I12" t="str" cm="1">
+        <f t="array" ref="I12:J18">_xlfn._xlws.PY(2,0)</f>
+        <v>bill_length_mm</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5.8139534883720929E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1631,8 +1642,14 @@
       <c r="G13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="21.3" x14ac:dyDescent="0.85">
+      <c r="I13" t="str">
+        <v>flipper_length_mm</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5.8139534883720929E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1654,8 +1671,14 @@
       <c r="G14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="21.3" x14ac:dyDescent="0.85">
+      <c r="I14" t="str">
+        <v>bill_depth_mm</v>
+      </c>
+      <c r="J14" s="1">
+        <v>5.8139534883720929E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1677,8 +1700,14 @@
       <c r="G15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="21.3" x14ac:dyDescent="0.85">
+      <c r="I15" t="str">
+        <v>body_mass_g</v>
+      </c>
+      <c r="J15" s="1">
+        <v>5.8139534883720929E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1700,8 +1729,14 @@
       <c r="G16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+      <c r="I16" t="str">
+        <v>species</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1723,8 +1758,14 @@
       <c r="G17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+      <c r="I17" t="str">
+        <v>island</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1746,8 +1787,14 @@
       <c r="G18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+      <c r="I18" t="str">
+        <v>sex</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1770,7 +1817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1793,7 +1840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1816,7 +1863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1839,7 +1886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1862,7 +1909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1885,7 +1932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1908,7 +1955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1931,7 +1978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1954,7 +2001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1977,7 +2024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2000,7 +2047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2023,7 +2070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2046,7 +2093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2069,7 +2116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2092,7 +2139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2115,7 +2162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2138,7 +2185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2161,7 +2208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2184,7 +2231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2207,7 +2254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2230,7 +2277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2253,7 +2300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2276,7 +2323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2299,7 +2346,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2322,7 +2369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2345,7 +2392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2368,7 +2415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2391,7 +2438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2414,7 +2461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2437,7 +2484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2460,7 +2507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2483,7 +2530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2506,7 +2553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2529,7 +2576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2552,7 +2599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2575,7 +2622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2598,7 +2645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2621,7 +2668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2644,7 +2691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2667,7 +2714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2690,7 +2737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2713,7 +2760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2736,7 +2783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2759,7 +2806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2782,7 +2829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2805,7 +2852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2828,7 +2875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2851,7 +2898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2874,7 +2921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -2897,7 +2944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -2920,7 +2967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2943,7 +2990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2966,7 +3013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -2989,7 +3036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -3012,7 +3059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -3035,7 +3082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -3058,7 +3105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -3081,7 +3128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -3104,7 +3151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -3127,7 +3174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3150,7 +3197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -3173,7 +3220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -3196,7 +3243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -3219,7 +3266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -3242,7 +3289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -3265,7 +3312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -3288,7 +3335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -3311,7 +3358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -3334,7 +3381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -3357,7 +3404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -3380,7 +3427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -3403,7 +3450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -3426,7 +3473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -3449,7 +3496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -3472,7 +3519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -3495,7 +3542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3518,7 +3565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -3541,7 +3588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -3564,7 +3611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3587,7 +3634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -3610,7 +3657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -3633,7 +3680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -3656,7 +3703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -3679,7 +3726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3702,7 +3749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -3725,7 +3772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3748,7 +3795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -3771,7 +3818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -3794,7 +3841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -3817,7 +3864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -3840,7 +3887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -3863,7 +3910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -3886,7 +3933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -3909,7 +3956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -3932,7 +3979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -3955,7 +4002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -3978,7 +4025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -4001,7 +4048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -4024,7 +4071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -4047,7 +4094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -4070,7 +4117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -4093,7 +4140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -4116,7 +4163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -4139,7 +4186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -4162,7 +4209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -4185,7 +4232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -4208,7 +4255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -4231,7 +4278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -4254,7 +4301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -4277,7 +4324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -4300,7 +4347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -4323,7 +4370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -4346,7 +4393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -4369,7 +4416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -4392,7 +4439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -4415,7 +4462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -4438,7 +4485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -4461,7 +4508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -4484,7 +4531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -4507,7 +4554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -4530,7 +4577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -4553,7 +4600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -4576,7 +4623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -4599,7 +4646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -4622,7 +4669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -4645,7 +4692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -4668,7 +4715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -4691,7 +4738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -4714,7 +4761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -4737,7 +4784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -4760,7 +4807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -4783,7 +4830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -4806,7 +4853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -4829,7 +4876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -4852,7 +4899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -4875,7 +4922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -4898,7 +4945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -4921,7 +4968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -4944,7 +4991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A158" t="s">
         <v>11</v>
       </c>
@@ -4967,7 +5014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -4990,7 +5037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -5013,7 +5060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -5036,7 +5083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A162" t="s">
         <v>11</v>
       </c>
@@ -5059,7 +5106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -5082,7 +5129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -5105,7 +5152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -5128,7 +5175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -5151,7 +5198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -5174,7 +5221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -5197,7 +5244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -5220,7 +5267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -5243,7 +5290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -5266,7 +5313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -5289,7 +5336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -5312,7 +5359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -5335,7 +5382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A175" t="s">
         <v>11</v>
       </c>
@@ -5358,7 +5405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -5381,7 +5428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -5404,7 +5451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -5427,7 +5474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -5450,7 +5497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -5473,7 +5520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -5496,7 +5543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -5519,7 +5566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -5542,7 +5589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -5565,7 +5612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -5588,7 +5635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -5611,7 +5658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A187" t="s">
         <v>11</v>
       </c>
@@ -5634,7 +5681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -5657,7 +5704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A189" t="s">
         <v>11</v>
       </c>
@@ -5680,7 +5727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -5703,7 +5750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -5726,7 +5773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -5749,7 +5796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -5772,7 +5819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -5795,7 +5842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A195" t="s">
         <v>11</v>
       </c>
@@ -5818,7 +5865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A196" t="s">
         <v>11</v>
       </c>
@@ -5841,7 +5888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -5864,7 +5911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A198" t="s">
         <v>11</v>
       </c>
@@ -5887,7 +5934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -5910,7 +5957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -5933,7 +5980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -5956,7 +6003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -5979,7 +6026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -6002,7 +6049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -6025,7 +6072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -6048,7 +6095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -6071,7 +6118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A207" t="s">
         <v>11</v>
       </c>
@@ -6094,7 +6141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -6117,7 +6164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -6140,7 +6187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -6163,7 +6210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A211" t="s">
         <v>11</v>
       </c>
@@ -6186,7 +6233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A212" t="s">
         <v>11</v>
       </c>
@@ -6209,7 +6256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A213" t="s">
         <v>11</v>
       </c>
@@ -6232,7 +6279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -6255,7 +6302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A215" t="s">
         <v>11</v>
       </c>
@@ -6278,7 +6325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -6301,7 +6348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -6324,7 +6371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -6347,7 +6394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -6370,7 +6417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -6393,7 +6440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -6416,7 +6463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A222" t="s">
         <v>12</v>
       </c>
@@ -6439,7 +6486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -6462,7 +6509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A224" t="s">
         <v>12</v>
       </c>
@@ -6485,7 +6532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A225" t="s">
         <v>12</v>
       </c>
@@ -6508,7 +6555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -6531,7 +6578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A227" t="s">
         <v>12</v>
       </c>
@@ -6554,7 +6601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A228" t="s">
         <v>12</v>
       </c>
@@ -6577,7 +6624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A229" t="s">
         <v>12</v>
       </c>
@@ -6600,7 +6647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A230" t="s">
         <v>12</v>
       </c>
@@ -6623,7 +6670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A231" t="s">
         <v>12</v>
       </c>
@@ -6646,7 +6693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A232" t="s">
         <v>12</v>
       </c>
@@ -6669,7 +6716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A233" t="s">
         <v>12</v>
       </c>
@@ -6692,7 +6739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A234" t="s">
         <v>12</v>
       </c>
@@ -6715,7 +6762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A235" t="s">
         <v>12</v>
       </c>
@@ -6738,7 +6785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A236" t="s">
         <v>12</v>
       </c>
@@ -6761,7 +6808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A237" t="s">
         <v>12</v>
       </c>
@@ -6784,7 +6831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A238" t="s">
         <v>12</v>
       </c>
@@ -6807,7 +6854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A239" t="s">
         <v>12</v>
       </c>
@@ -6830,7 +6877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A240" t="s">
         <v>12</v>
       </c>
@@ -6853,7 +6900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A241" t="s">
         <v>12</v>
       </c>
@@ -6876,7 +6923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A242" t="s">
         <v>12</v>
       </c>
@@ -6899,7 +6946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A243" t="s">
         <v>12</v>
       </c>
@@ -6922,7 +6969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A244" t="s">
         <v>12</v>
       </c>
@@ -6945,7 +6992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A245" t="s">
         <v>12</v>
       </c>
@@ -6968,7 +7015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A246" t="s">
         <v>12</v>
       </c>
@@ -6991,7 +7038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A247" t="s">
         <v>12</v>
       </c>
@@ -7014,7 +7061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A248" t="s">
         <v>12</v>
       </c>
@@ -7037,7 +7084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A249" t="s">
         <v>12</v>
       </c>
@@ -7060,7 +7107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A250" t="s">
         <v>12</v>
       </c>
@@ -7083,7 +7130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A251" t="s">
         <v>12</v>
       </c>
@@ -7106,7 +7153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A252" t="s">
         <v>12</v>
       </c>
@@ -7129,7 +7176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A253" t="s">
         <v>12</v>
       </c>
@@ -7152,7 +7199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A254" t="s">
         <v>12</v>
       </c>
@@ -7175,7 +7222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A255" t="s">
         <v>12</v>
       </c>
@@ -7198,7 +7245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A256" t="s">
         <v>12</v>
       </c>
@@ -7221,7 +7268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A257" t="s">
         <v>12</v>
       </c>
@@ -7244,7 +7291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A258" t="s">
         <v>12</v>
       </c>
@@ -7267,7 +7314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A259" t="s">
         <v>12</v>
       </c>
@@ -7290,7 +7337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A260" t="s">
         <v>12</v>
       </c>
@@ -7313,7 +7360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A261" t="s">
         <v>12</v>
       </c>
@@ -7336,7 +7383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A262" t="s">
         <v>12</v>
       </c>
@@ -7359,7 +7406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A263" t="s">
         <v>12</v>
       </c>
@@ -7382,7 +7429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -7405,7 +7452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A265" t="s">
         <v>12</v>
       </c>
@@ -7428,7 +7475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A266" t="s">
         <v>12</v>
       </c>
@@ -7451,7 +7498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A267" t="s">
         <v>12</v>
       </c>
@@ -7474,7 +7521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A268" t="s">
         <v>12</v>
       </c>
@@ -7497,7 +7544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A269" t="s">
         <v>12</v>
       </c>
@@ -7520,7 +7567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A270" t="s">
         <v>12</v>
       </c>
@@ -7543,7 +7590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A271" t="s">
         <v>12</v>
       </c>
@@ -7566,7 +7613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A272" t="s">
         <v>12</v>
       </c>
@@ -7589,7 +7636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A273" t="s">
         <v>12</v>
       </c>
@@ -7612,7 +7659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A274" t="s">
         <v>12</v>
       </c>
@@ -7635,7 +7682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A275" t="s">
         <v>12</v>
       </c>
@@ -7658,7 +7705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A276" t="s">
         <v>12</v>
       </c>
@@ -7681,7 +7728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A277" t="s">
         <v>12</v>
       </c>
@@ -7704,7 +7751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A278" t="s">
         <v>12</v>
       </c>
@@ -7727,7 +7774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A279" t="s">
         <v>12</v>
       </c>
@@ -7750,7 +7797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A280" t="s">
         <v>12</v>
       </c>
@@ -7773,7 +7820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A281" t="s">
         <v>12</v>
       </c>
@@ -7796,7 +7843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A282" t="s">
         <v>12</v>
       </c>
@@ -7819,7 +7866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A283" t="s">
         <v>12</v>
       </c>
@@ -7842,7 +7889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A284" t="s">
         <v>12</v>
       </c>
@@ -7865,7 +7912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A285" t="s">
         <v>12</v>
       </c>
@@ -7888,7 +7935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A286" t="s">
         <v>12</v>
       </c>
@@ -7911,7 +7958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A287" t="s">
         <v>12</v>
       </c>
@@ -7934,7 +7981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A288" t="s">
         <v>12</v>
       </c>
@@ -7957,7 +8004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A289" t="s">
         <v>12</v>
       </c>
@@ -7980,7 +8027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A290" t="s">
         <v>12</v>
       </c>
@@ -8003,7 +8050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A291" t="s">
         <v>12</v>
       </c>
@@ -8026,7 +8073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A292" t="s">
         <v>12</v>
       </c>
@@ -8049,7 +8096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A293" t="s">
         <v>12</v>
       </c>
@@ -8072,7 +8119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A294" t="s">
         <v>12</v>
       </c>
@@ -8095,7 +8142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A295" t="s">
         <v>12</v>
       </c>
@@ -8118,7 +8165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A296" t="s">
         <v>12</v>
       </c>
@@ -8141,7 +8188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A297" t="s">
         <v>12</v>
       </c>
@@ -8164,7 +8211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A298" t="s">
         <v>12</v>
       </c>
@@ -8187,7 +8234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A299" t="s">
         <v>12</v>
       </c>
@@ -8210,7 +8257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A300" t="s">
         <v>12</v>
       </c>
@@ -8233,7 +8280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A301" t="s">
         <v>12</v>
       </c>
@@ -8256,7 +8303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A302" t="s">
         <v>12</v>
       </c>
@@ -8279,7 +8326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A303" t="s">
         <v>12</v>
       </c>
@@ -8302,7 +8349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A304" t="s">
         <v>12</v>
       </c>
@@ -8325,7 +8372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A305" t="s">
         <v>12</v>
       </c>
@@ -8348,7 +8395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A306" t="s">
         <v>12</v>
       </c>
@@ -8371,7 +8418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A307" t="s">
         <v>12</v>
       </c>
@@ -8394,7 +8441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A308" t="s">
         <v>12</v>
       </c>
@@ -8417,7 +8464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A309" t="s">
         <v>12</v>
       </c>
@@ -8440,7 +8487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A310" t="s">
         <v>12</v>
       </c>
@@ -8463,7 +8510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A311" t="s">
         <v>12</v>
       </c>
@@ -8486,7 +8533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A312" t="s">
         <v>12</v>
       </c>
@@ -8509,7 +8556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A313" t="s">
         <v>12</v>
       </c>
@@ -8532,7 +8579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A314" t="s">
         <v>12</v>
       </c>
@@ -8555,7 +8602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A315" t="s">
         <v>12</v>
       </c>
@@ -8578,7 +8625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A316" t="s">
         <v>12</v>
       </c>
@@ -8601,7 +8648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A317" t="s">
         <v>12</v>
       </c>
@@ -8624,7 +8671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A318" t="s">
         <v>12</v>
       </c>
@@ -8647,7 +8694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A319" t="s">
         <v>12</v>
       </c>
@@ -8670,7 +8717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A320" t="s">
         <v>12</v>
       </c>
@@ -8693,7 +8740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A321" t="s">
         <v>12</v>
       </c>
@@ -8716,7 +8763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A322" t="s">
         <v>12</v>
       </c>
@@ -8739,7 +8786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A323" t="s">
         <v>12</v>
       </c>
@@ -8762,7 +8809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A324" t="s">
         <v>12</v>
       </c>
@@ -8785,7 +8832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A325" t="s">
         <v>12</v>
       </c>
@@ -8808,7 +8855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A326" t="s">
         <v>12</v>
       </c>
@@ -8831,7 +8878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A327" t="s">
         <v>12</v>
       </c>
@@ -8854,7 +8901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A328" t="s">
         <v>12</v>
       </c>
@@ -8877,7 +8924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A329" t="s">
         <v>12</v>
       </c>
@@ -8900,7 +8947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A330" t="s">
         <v>12</v>
       </c>
@@ -8923,7 +8970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A331" t="s">
         <v>12</v>
       </c>
@@ -8946,7 +8993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A332" t="s">
         <v>12</v>
       </c>
@@ -8969,7 +9016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A333" t="s">
         <v>12</v>
       </c>
@@ -8992,7 +9039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A334" t="s">
         <v>12</v>
       </c>
@@ -9015,7 +9062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A335" t="s">
         <v>12</v>
       </c>
@@ -9038,7 +9085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A336" t="s">
         <v>12</v>
       </c>
@@ -9061,7 +9108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A337" t="s">
         <v>12</v>
       </c>
@@ -9084,7 +9131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A338" t="s">
         <v>12</v>
       </c>
@@ -9107,7 +9154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A339" t="s">
         <v>12</v>
       </c>
@@ -9130,7 +9177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A340" t="s">
         <v>12</v>
       </c>
@@ -9153,7 +9200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A341" t="s">
         <v>12</v>
       </c>
@@ -9164,7 +9211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A342" t="s">
         <v>12</v>
       </c>
@@ -9187,7 +9234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A343" t="s">
         <v>12</v>
       </c>
@@ -9210,7 +9257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A344" t="s">
         <v>12</v>
       </c>
@@ -9233,7 +9280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A345" t="s">
         <v>12</v>
       </c>

--- a/2-missing-values/2-missing-values-solution.xlsx
+++ b/2-missing-values/2-missing-values-solution.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\2-missing-values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FAC304-4DD5-486C-8D94-EFEB2C03A92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E972D322-EE35-472A-885D-2C8F170FAED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="penguins" sheetId="1" r:id="rId1"/>
+    <sheet name="2-missing-rows-solution" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -632,10 +632,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1378,7 +1377,7 @@
         <f t="array" ref="I3:J9">_xlfn._xlws.PY(1,0)</f>
         <v>species</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>0</v>
       </c>
     </row>
@@ -1407,7 +1406,7 @@
       <c r="I4" t="str">
         <v>island</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>0</v>
       </c>
     </row>
@@ -1424,7 +1423,7 @@
       <c r="I5" t="str">
         <v>bill_length_mm</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>2</v>
       </c>
     </row>
@@ -1453,7 +1452,7 @@
       <c r="I6" t="str">
         <v>bill_depth_mm</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>2</v>
       </c>
     </row>
@@ -1482,7 +1481,7 @@
       <c r="I7" t="str">
         <v>flipper_length_mm</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>2</v>
       </c>
     </row>
@@ -1511,7 +1510,7 @@
       <c r="I8" t="str">
         <v>body_mass_g</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>2</v>
       </c>
     </row>
@@ -1540,7 +1539,7 @@
       <c r="I9" t="str">
         <v>sex</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <v>0</v>
       </c>
     </row>
